--- a/data/oakland.xlsx
+++ b/data/oakland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clint\Documents\nss\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A97DDF-0D3C-4F35-A4BE-3369B25481CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0E51CC-3693-4BD1-859E-9DC5A112DA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="9" xr2:uid="{1CDAE812-845C-4112-A771-69891D7E4B6F}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{1CDAE812-845C-4112-A771-69891D7E4B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="431">
   <si>
     <t>Player </t>
   </si>
@@ -1303,9 +1303,6 @@
     <t>Daniel Ross</t>
   </si>
   <si>
-    <t>Henry Ruggs III</t>
-  </si>
-  <si>
     <t>John Simpson</t>
   </si>
   <si>
@@ -1325,6 +1322,12 @@
   </si>
   <si>
     <t>Sam Young</t>
+  </si>
+  <si>
+    <t>Maurice Hurst Jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Ruggs </t>
   </si>
 </sst>
 </file>
@@ -2831,10 +2834,13 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -3097,7 +3103,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>429</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -3436,7 +3442,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
@@ -3453,7 +3459,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -3461,15 +3467,15 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
+        <v>423</v>
+      </c>
+      <c r="B38" t="s">
         <v>424</v>
-      </c>
-      <c r="B38" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -3513,7 +3519,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K40" t="s">
         <v>402</v>
@@ -3521,7 +3527,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -3573,7 +3579,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
